--- a/files/output.xlsx
+++ b/files/output.xlsx
@@ -519,7 +519,7 @@
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Тепловоз  ТЭМ2</t>
+          <t>Тепловоз ТЭМ2</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -1957,7 +1957,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>С  о  с  т  а  в</t>
+          <t>Состав</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
